--- a/biology/Zoologie/Alburnus_chalcoides/Alburnus_chalcoides.xlsx
+++ b/biology/Zoologie/Alburnus_chalcoides/Alburnus_chalcoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus chalcoides, l'ablette de lacs[4], est un poisson d'eau douce et d'eau saumâtre de la famille des Cyprinidae.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus chalcoides, l'ablette de lacs, est un poisson d'eau douce et d'eau saumâtre de la famille des Cyprinidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Alburnus chalcoides se rencontre dans les cours d'eau se jetant dans la Caspienne et dans l'Aral[5]. Sa population est en décroissance depuis les années 1950/1960 à la suite de la création de barrages hydrauliques lui bloquant l'accès à ses zones de reproduction. Désormais il ne reste que quelques populations éparses et l'on s'attend à ce que l'effectif global continue de diminuer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Alburnus chalcoides se rencontre dans les cours d'eau se jetant dans la Caspienne et dans l'Aral. Sa population est en décroissance depuis les années 1950/1960 à la suite de la création de barrages hydrauliques lui bloquant l'accès à ses zones de reproduction. Désormais il ne reste que quelques populations éparses et l'on s'attend à ce que l'effectif global continue de diminuer.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale connue pour Alburnus chalcoides est de 400 mm[4], avec une taille moyenne de 280 mm pour les femelles, et de 200 mm pour les mâles.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale connue pour Alburnus chalcoides est de 400 mm, avec une taille moyenne de 280 mm pour les femelles, et de 200 mm pour les mâles.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Noms communs</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste non exhaustive de noms vernaculaires :
 </t>
@@ -604,9 +622,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, du latin chalcoides, « qui a l'apparence du cuivre », lui a été donné en référence à sa livrée[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, du latin chalcoides, « qui a l'apparence du cuivre », lui a été donné en référence à sa livrée.
 </t>
         </is>
       </c>
@@ -635,9 +655,11 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Güldenstädt[7], 1772 : Salmo leucichthys et Cyprinus chalcoides descripti. Novi Commentarii Academiae Scientiarum Imperialis Petropolitanae, vol. 16, p. 531-547 (texte intégral).</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Güldenstädt, 1772 : Salmo leucichthys et Cyprinus chalcoides descripti. Novi Commentarii Academiae Scientiarum Imperialis Petropolitanae, vol. 16, p. 531-547 (texte intégral).</t>
         </is>
       </c>
     </row>
